--- a/pred_ohlcv/54_21/2019-10-30 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1214944.2017</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1214933.2017</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1272513.2017</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1256013.2017</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1266013.2017</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1045699.2707</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1048207.5005</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1048197.5005</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1919197.5005</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1919197.5005</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2030197.5005</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2030197.5005</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1858174.2665</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1906894.2665</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1425200.2773</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>538425.3689580191</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-864157.9129419808</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2337443.02304198</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2279706.74674198</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1396880.31024198</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-992925.1755419804</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2652480.387441981</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2389094.050541981</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1484625.061341981</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1053484.655741981</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3257062.466341982</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3073449.729941982</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3771388.586041982</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4058486.822641982</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 XVG ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>538425.3689580191</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-864157.9129419808</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2337443.02304198</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2279706.74674198</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1396880.31024198</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-992925.1755419804</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2652480.387441981</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2389094.050541981</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1484625.061341981</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1053484.655741981</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2307019.334541981</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3257062.466341982</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3073449.729941982</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3140665.079141982</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3278346.339941982</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3771488.586041982</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3771388.586041982</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3879147.206641982</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4058486.822641982</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4960824.990341982</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4166691.466041982</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4186854.033741982</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8843196.700641982</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-12940199.35535074</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-12929777.27695074</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-12880336.98465074</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-12880326.98465074</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-12971641.43535074</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-12949566.38025074</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-13238602.10785074</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-13301175.89755074</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
